--- a/Ciudades_Venues.xlsx
+++ b/Ciudades_Venues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiarafacal/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6766C409-08D5-CD4A-B8D2-CD4D9C526AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55319E3-543F-354A-9023-D58168AFECA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{5FC17B0F-39D6-1D46-8638-72FCEF4581D3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
   <si>
     <t>Ciudad</t>
   </si>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1159D8C-DD4F-F24B-997F-636D2850E6F0}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -700,91 +700,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1787160</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20789</v>
+      </c>
+      <c r="G2" s="2">
+        <v>140</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1675860</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>130</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1532760</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2">
+        <v>17500</v>
+      </c>
+      <c r="G4" s="2">
+        <v>135</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
-        <v>1787160</v>
+        <v>1427820</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2">
-        <v>20789</v>
+        <v>21000</v>
       </c>
       <c r="G5" s="2">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
-        <v>1675860</v>
+        <v>1208400</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="G6" s="2">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -793,460 +866,382 @@
         <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>1532760</v>
+        <v>1039860</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2">
-        <v>17500</v>
+        <v>23500</v>
       </c>
       <c r="G7" s="2">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
-        <v>1427820</v>
+        <v>982620</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="G8" s="2">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
-        <v>1208400</v>
+        <v>963540</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2">
-        <v>15000</v>
+        <v>19800</v>
       </c>
       <c r="G9" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2">
-        <v>1039860</v>
+        <v>896760</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2">
-        <v>23500</v>
+        <v>20300</v>
       </c>
       <c r="G10" s="2">
         <v>120</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="2">
-        <v>982620</v>
+        <v>877680</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F11" s="2">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="G11" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>963540</v>
+        <v>829980</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2">
-        <v>19800</v>
+        <v>19000</v>
       </c>
       <c r="G12" s="2">
         <v>110</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2">
-        <v>896760</v>
+        <v>753660</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F13" s="2">
-        <v>20300</v>
+        <v>43000</v>
       </c>
       <c r="G13" s="2">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2">
-        <v>877680</v>
+        <v>95400</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F14" s="2">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="G14" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2">
-        <v>829980</v>
+        <v>636000</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F15" s="2">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G15" s="2">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
-        <v>753660</v>
+        <v>616920</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="2">
+        <v>15000</v>
+      </c>
+      <c r="G16" s="2">
         <v>55</v>
       </c>
-      <c r="F16" s="2">
-        <v>43000</v>
-      </c>
-      <c r="G16" s="2">
-        <v>75</v>
-      </c>
       <c r="H16" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
-        <v>95400</v>
+        <v>464280</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F17" s="2">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="G17" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2">
-        <v>636000</v>
+        <v>318000</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F18" s="2">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="G18" s="2">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2">
-        <v>616920</v>
+        <v>79500</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F19" s="2">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="G19" s="2">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2">
-        <v>464280</v>
+        <v>47700</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F20" s="2">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="G20" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2">
-        <v>318000</v>
+        <v>31800</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F21" s="2">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="G21" s="2">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="2">
-        <v>79500</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="2">
-        <v>13000</v>
-      </c>
-      <c r="G22" s="2">
-        <v>115</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="2">
-        <v>47700</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="2">
-        <v>17000</v>
-      </c>
-      <c r="G23" s="2">
-        <v>100</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="2">
-        <v>31800</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="2">
-        <v>15000</v>
-      </c>
-      <c r="G24" s="2">
-        <v>50</v>
-      </c>
-      <c r="H24" s="2" t="s">
         <v>87</v>
       </c>
     </row>
